--- a/demo/导表/电气入库/9.1 导体选择 GIS设备与主变压器间的连接线.xlsx
+++ b/demo/导表/电气入库/9.1 导体选择 GIS设备与主变压器间的连接线.xlsx
@@ -19,31 +19,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>型式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钢芯铝绞线</t>
   </si>
   <si>
     <t>LGJ-300/30</t>
+  </si>
+  <si>
+    <t>TypeID</t>
+  </si>
+  <si>
+    <t>TypeName</t>
+  </si>
+  <si>
+    <t>ConductorName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +72,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code Medium"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,10 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -444,35 +454,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
